--- a/pas_pot_diff/BOM_REV_A.xlsx
+++ b/pas_pot_diff/BOM_REV_A.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">U2</t>
   </si>
   <si>
-    <t xml:space="preserve">QFN-44_EP_7.0x7.0x0.5P</t>
+    <t xml:space="preserve">TQFP-32_7.0x7.0x0.8P</t>
   </si>
   <si>
     <t xml:space="preserve">C14877</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">0.1uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C2, C3, C4, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17</t>
+    <t xml:space="preserve">C1, C2, C3, C4, C7, C8, C9, C10, C11, C12, C13</t>
   </si>
   <si>
     <t xml:space="preserve">0402</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">10k</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R4, R5</t>
+    <t xml:space="preserve">R1</t>
   </si>
   <si>
     <t xml:space="preserve">C25744</t>
@@ -370,7 +370,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -401,7 +401,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,7 +443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
